--- a/MolecularesAbril.xlsx
+++ b/MolecularesAbril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Cursos\Análisis de Series de Tiempo\POSGRADO\EP6035\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E155C8-DA37-4213-9901-07EAA756583E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1902C79-E8A9-493E-B607-130D2F7C5A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7431C191-4533-47EC-A45C-33C8E4521CB3}"/>
   </bookViews>
@@ -402,9 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B55C51-2E56-454A-9B8E-AA4A9509CE06}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
